--- a/logs/grind_stats.xlsx
+++ b/logs/grind_stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10512" yWindow="2400" windowWidth="21624" windowHeight="12780" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -496,15 +496,25 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>BGATES</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>TREEPLAT</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
           <t>DUST1</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>DUST2</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>DUST3</t>
         </is>
@@ -513,3300 +523,5612 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-10 14:15:03</t>
+          <t>2026-02-15 22:00:41</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61377</v>
+        <v>41709</v>
       </c>
       <c r="C2" t="n">
-        <v>79643</v>
+        <v>57431</v>
       </c>
       <c r="D2" t="n">
-        <v>22758</v>
+        <v>17669</v>
       </c>
       <c r="E2" t="n">
-        <v>41215</v>
+        <v>21716</v>
       </c>
       <c r="F2" t="n">
-        <v>26443</v>
+        <v>19879</v>
       </c>
       <c r="G2" t="n">
-        <v>21793</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16293</v>
+        <v>6871</v>
       </c>
       <c r="J2" t="n">
-        <v>47105</v>
+        <v>23676</v>
       </c>
       <c r="K2" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3599</v>
+        <v>1290</v>
       </c>
       <c r="M2" t="n">
-        <v>5063</v>
+        <v>1789</v>
       </c>
       <c r="N2" t="n">
-        <v>1019</v>
+        <v>361</v>
       </c>
       <c r="O2" t="n">
-        <v>393386</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8931</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>9180</v>
+      </c>
+      <c r="S2" t="n">
+        <v>8931</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-10 14:18:53</t>
+          <t>2026-02-15 22:07:47</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61377</v>
+        <v>42559</v>
       </c>
       <c r="C3" t="n">
-        <v>79643</v>
+        <v>60118</v>
       </c>
       <c r="D3" t="n">
-        <v>22758</v>
+        <v>18423</v>
       </c>
       <c r="E3" t="n">
-        <v>41215</v>
+        <v>23409</v>
       </c>
       <c r="F3" t="n">
-        <v>26443</v>
+        <v>20573</v>
       </c>
       <c r="G3" t="n">
-        <v>21793</v>
+        <v>18808</v>
       </c>
       <c r="H3" t="n">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="I3" t="n">
-        <v>16293</v>
+        <v>7678</v>
       </c>
       <c r="J3" t="n">
-        <v>47105</v>
+        <v>26524</v>
       </c>
       <c r="K3" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3599</v>
+        <v>1541</v>
       </c>
       <c r="M3" t="n">
-        <v>5063</v>
+        <v>2136</v>
       </c>
       <c r="N3" t="n">
-        <v>1019</v>
+        <v>430</v>
       </c>
       <c r="O3" t="n">
-        <v>393386</v>
+        <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>20608</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>20492</v>
+      </c>
+      <c r="S3" t="n">
+        <v>20608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-10 15:18:00</t>
+          <t>2026-02-15 22:55:52</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61377</v>
+        <v>46563</v>
       </c>
       <c r="C4" t="n">
-        <v>82266</v>
+        <v>64685</v>
       </c>
       <c r="D4" t="n">
-        <v>22758</v>
+        <v>18599</v>
       </c>
       <c r="E4" t="n">
-        <v>41215</v>
+        <v>25712</v>
       </c>
       <c r="F4" t="n">
-        <v>26443</v>
+        <v>20908</v>
       </c>
       <c r="G4" t="n">
-        <v>21793</v>
+        <v>20231</v>
       </c>
       <c r="H4" t="n">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="I4" t="n">
-        <v>16293</v>
+        <v>8221</v>
       </c>
       <c r="J4" t="n">
-        <v>47105</v>
+        <v>28136</v>
       </c>
       <c r="K4" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3599</v>
+        <v>1541</v>
       </c>
       <c r="M4" t="n">
-        <v>5063</v>
+        <v>2136</v>
       </c>
       <c r="N4" t="n">
-        <v>1030</v>
+        <v>430</v>
       </c>
       <c r="O4" t="n">
-        <v>393386</v>
+        <v>5</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>41874</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>40542</v>
+      </c>
+      <c r="S4" t="n">
+        <v>41874</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-12-10 16:14:42</t>
+          <t>2026-02-15 23:58:37</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63671</v>
+        <v>55269</v>
       </c>
       <c r="C5" t="n">
-        <v>85689</v>
+        <v>75039</v>
       </c>
       <c r="D5" t="n">
-        <v>23541</v>
+        <v>22755</v>
       </c>
       <c r="E5" t="n">
-        <v>42242</v>
+        <v>32096</v>
       </c>
       <c r="F5" t="n">
-        <v>27596</v>
+        <v>25441</v>
       </c>
       <c r="G5" t="n">
-        <v>22471</v>
+        <v>23230</v>
       </c>
       <c r="H5" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>16715</v>
+        <v>10151</v>
       </c>
       <c r="J5" t="n">
-        <v>48874</v>
+        <v>34546</v>
       </c>
       <c r="K5" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3697</v>
+        <v>1881</v>
       </c>
       <c r="M5" t="n">
-        <v>5118</v>
+        <v>2608</v>
       </c>
       <c r="N5" t="n">
-        <v>1075</v>
+        <v>526</v>
       </c>
       <c r="O5" t="n">
-        <v>600420</v>
+        <v>10</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>76618</v>
+      </c>
+      <c r="S5" t="n">
+        <v>80679</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-12-10 17:12:13</t>
+          <t>2026-02-16 00:06:49</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65203</v>
+        <v>58334</v>
       </c>
       <c r="C6" t="n">
-        <v>88281</v>
+        <v>79476</v>
       </c>
       <c r="D6" t="n">
-        <v>24029</v>
+        <v>23421</v>
       </c>
       <c r="E6" t="n">
-        <v>43751</v>
+        <v>33118</v>
       </c>
       <c r="F6" t="n">
-        <v>28302</v>
+        <v>26169</v>
       </c>
       <c r="G6" t="n">
-        <v>23373</v>
+        <v>23252</v>
       </c>
       <c r="H6" t="n">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>17313</v>
+        <v>10901</v>
       </c>
       <c r="J6" t="n">
-        <v>50474</v>
+        <v>36325</v>
       </c>
       <c r="K6" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3832</v>
+        <v>1982</v>
       </c>
       <c r="M6" t="n">
-        <v>5362</v>
+        <v>2747</v>
       </c>
       <c r="N6" t="n">
-        <v>1075</v>
+        <v>554</v>
       </c>
       <c r="O6" t="n">
-        <v>692186</v>
+        <v>10</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>92167</v>
+      </c>
+      <c r="S6" t="n">
+        <v>97101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-12-10 17:23:38</t>
+          <t>2026-02-16 00:14:55</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67518</v>
+        <v>63193</v>
       </c>
       <c r="C7" t="n">
-        <v>91405</v>
+        <v>83693</v>
       </c>
       <c r="D7" t="n">
-        <v>24959</v>
+        <v>25083</v>
       </c>
       <c r="E7" t="n">
-        <v>45245</v>
+        <v>33990</v>
       </c>
       <c r="F7" t="n">
-        <v>29339</v>
+        <v>27815</v>
       </c>
       <c r="G7" t="n">
-        <v>23853</v>
+        <v>23424</v>
       </c>
       <c r="H7" t="n">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="I7" t="n">
-        <v>17816</v>
+        <v>11413</v>
       </c>
       <c r="J7" t="n">
-        <v>52253</v>
+        <v>38746</v>
       </c>
       <c r="K7" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>4032</v>
+        <v>2099</v>
       </c>
       <c r="M7" t="n">
-        <v>5362</v>
+        <v>2910</v>
       </c>
       <c r="N7" t="n">
-        <v>1158</v>
+        <v>586</v>
       </c>
       <c r="O7" t="n">
-        <v>692186</v>
+        <v>10</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>106208</v>
+      </c>
+      <c r="S7" t="n">
+        <v>111715</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-12-10 18:18:04</t>
+          <t>2026-02-16 01:06:09</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70418</v>
+        <v>23612</v>
       </c>
       <c r="C8" t="n">
-        <v>94952</v>
+        <v>30163</v>
       </c>
       <c r="D8" t="n">
-        <v>26059</v>
+        <v>35392</v>
       </c>
       <c r="E8" t="n">
-        <v>47210</v>
+        <v>35554</v>
       </c>
       <c r="F8" t="n">
-        <v>30139</v>
+        <v>31857</v>
       </c>
       <c r="G8" t="n">
-        <v>25446</v>
+        <v>31857</v>
       </c>
       <c r="H8" t="n">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="I8" t="n">
-        <v>18516</v>
+        <v>11941</v>
       </c>
       <c r="J8" t="n">
-        <v>53769</v>
+        <v>40963</v>
       </c>
       <c r="K8" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>4088</v>
+        <v>2577</v>
       </c>
       <c r="M8" t="n">
-        <v>5739</v>
+        <v>3574</v>
       </c>
       <c r="N8" t="n">
-        <v>1158</v>
+        <v>720</v>
       </c>
       <c r="O8" t="n">
-        <v>890882</v>
+        <v>11</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>124773</v>
+      </c>
+      <c r="S8" t="n">
+        <v>130573</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-12-11 16:30:46</t>
+          <t>2026-02-16 01:11:48</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73080</v>
+        <v>69974</v>
       </c>
       <c r="C9" t="n">
-        <v>101003</v>
+        <v>26018</v>
       </c>
       <c r="D9" t="n">
-        <v>27320</v>
+        <v>27226</v>
       </c>
       <c r="E9" t="n">
-        <v>48325</v>
+        <v>37354</v>
       </c>
       <c r="F9" t="n">
-        <v>31524</v>
+        <v>31857</v>
       </c>
       <c r="G9" t="n">
-        <v>31299</v>
+        <v>24597</v>
       </c>
       <c r="H9" t="n">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="I9" t="n">
-        <v>18963</v>
+        <v>12339</v>
       </c>
       <c r="J9" t="n">
-        <v>55534</v>
+        <v>42870</v>
       </c>
       <c r="K9" t="n">
-        <v>5190</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>4214</v>
+        <v>2915</v>
       </c>
       <c r="M9" t="n">
-        <v>5914</v>
+        <v>4041</v>
       </c>
       <c r="N9" t="n">
-        <v>1194</v>
+        <v>814</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>141340</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-12-11 17:32:26</t>
+          <t>2026-02-16 15:01:44</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75892</v>
+        <v>74269</v>
       </c>
       <c r="C10" t="n">
-        <v>105026</v>
+        <v>95006</v>
       </c>
       <c r="D10" t="n">
-        <v>28094</v>
+        <v>30481</v>
       </c>
       <c r="E10" t="n">
-        <v>50919</v>
+        <v>40589</v>
       </c>
       <c r="F10" t="n">
-        <v>32500</v>
+        <v>33746</v>
       </c>
       <c r="G10" t="n">
-        <v>31623</v>
+        <v>26430</v>
       </c>
       <c r="H10" t="n">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>19272</v>
+        <v>13401</v>
       </c>
       <c r="J10" t="n">
-        <v>59396</v>
+        <v>45577</v>
       </c>
       <c r="K10" t="n">
-        <v>5190</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>4394</v>
+        <v>3217</v>
       </c>
       <c r="M10" t="n">
-        <v>6063</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1245</v>
+        <v>898</v>
       </c>
       <c r="O10" t="n">
-        <v>1143507</v>
+        <v>16</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>76115</v>
+      </c>
+      <c r="R10" t="n">
+        <v>152859</v>
+      </c>
+      <c r="S10" t="n">
+        <v>131837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-12-11 18:32:19</t>
+          <t>2026-02-16 15:09:55</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79086</v>
+        <v>77624</v>
       </c>
       <c r="C11" t="n">
-        <v>108012</v>
+        <v>100357</v>
       </c>
       <c r="D11" t="n">
-        <v>29286</v>
+        <v>31970</v>
       </c>
       <c r="E11" t="n">
-        <v>52908</v>
+        <v>42050</v>
       </c>
       <c r="F11" t="n">
-        <v>34075</v>
+        <v>35419</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>27029</v>
       </c>
       <c r="H11" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>19956</v>
+        <v>14348</v>
       </c>
       <c r="J11" t="n">
-        <v>61789</v>
+        <v>47462</v>
       </c>
       <c r="K11" t="n">
-        <v>5190</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>4486</v>
+        <v>3280</v>
       </c>
       <c r="M11" t="n">
-        <v>6291</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1272</v>
+        <v>915</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>155044</v>
+      </c>
+      <c r="S11" t="n">
+        <v>135507</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-12-11 18:40:11</t>
+          <t>2026-02-16 15:47:02</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81497</v>
+        <v>79885</v>
       </c>
       <c r="C12" t="n">
-        <v>109982</v>
+        <v>104936</v>
       </c>
       <c r="D12" t="n">
-        <v>30212</v>
+        <v>32763</v>
       </c>
       <c r="E12" t="n">
-        <v>54768</v>
+        <v>44019</v>
       </c>
       <c r="F12" t="n">
-        <v>35046</v>
+        <v>36275</v>
       </c>
       <c r="G12" t="n">
-        <v>33539</v>
+        <v>36474</v>
       </c>
       <c r="H12" t="n">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="I12" t="n">
-        <v>20604</v>
+        <v>15040</v>
       </c>
       <c r="J12" t="n">
-        <v>63309</v>
+        <v>49817</v>
       </c>
       <c r="K12" t="n">
-        <v>5190</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3639</v>
       </c>
       <c r="M12" t="n">
-        <v>6391</v>
+        <v>5038</v>
       </c>
       <c r="N12" t="n">
-        <v>1292</v>
+        <v>1014</v>
       </c>
       <c r="O12" t="n">
-        <v>1379164</v>
+        <v>19</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>256435</v>
+      </c>
+      <c r="R12" t="n">
+        <v>156557</v>
+      </c>
+      <c r="S12" t="n">
+        <v>137087</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-12-11 19:52:59</t>
+          <t>2026-02-16 15:55:30</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83540</v>
+        <v>82737</v>
       </c>
       <c r="C13" t="n">
-        <v>113153</v>
+        <v>106914</v>
       </c>
       <c r="D13" t="n">
-        <v>31164</v>
+        <v>34167</v>
       </c>
       <c r="E13" t="n">
-        <v>55969</v>
+        <v>45346</v>
       </c>
       <c r="F13" t="n">
-        <v>36059</v>
+        <v>37874</v>
       </c>
       <c r="G13" t="n">
-        <v>34297</v>
+        <v>27699</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="I13" t="n">
-        <v>21289</v>
+        <v>15925</v>
       </c>
       <c r="J13" t="n">
-        <v>64768</v>
+        <v>52488</v>
       </c>
       <c r="K13" t="n">
-        <v>5190</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>4674</v>
+        <v>3953</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>5471</v>
       </c>
       <c r="N13" t="n">
-        <v>1326</v>
+        <v>1100</v>
       </c>
       <c r="O13" t="n">
-        <v>1484967</v>
+        <v>19</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>339824</v>
+      </c>
+      <c r="R13" t="n">
+        <v>156557</v>
+      </c>
+      <c r="S13" t="n">
+        <v>137087</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-12-13 23:20:08</t>
+          <t>2026-02-16 17:37:23</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87288</v>
+        <v>92713</v>
       </c>
       <c r="C14" t="n">
-        <v>118445</v>
+        <v>119444</v>
       </c>
       <c r="D14" t="n">
-        <v>32378</v>
+        <v>36206</v>
       </c>
       <c r="E14" t="n">
-        <v>59321</v>
+        <v>51483</v>
       </c>
       <c r="F14" t="n">
-        <v>37156</v>
+        <v>40066</v>
       </c>
       <c r="G14" t="n">
-        <v>36461</v>
+        <v>31081</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="I14" t="n">
-        <v>22056</v>
+        <v>17358</v>
       </c>
       <c r="J14" t="n">
-        <v>67351</v>
+        <v>57189</v>
       </c>
       <c r="K14" t="n">
-        <v>5915</v>
+        <v>221</v>
       </c>
       <c r="L14" t="n">
-        <v>4825</v>
+        <v>4175</v>
       </c>
       <c r="M14" t="n">
-        <v>6762</v>
+        <v>5779</v>
       </c>
       <c r="N14" t="n">
-        <v>1370</v>
+        <v>1160</v>
       </c>
       <c r="O14" t="n">
-        <v>1603399</v>
+        <v>21</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>563608</v>
+      </c>
+      <c r="R14" t="n">
+        <v>156557</v>
+      </c>
+      <c r="S14" t="n">
+        <v>137087</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-12-13 23:25:44</t>
+          <t>2026-02-16 17:46:54</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>89809</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>120890</v>
+        <v>97522</v>
       </c>
       <c r="D15" t="n">
-        <v>33114</v>
+        <v>121972</v>
       </c>
       <c r="E15" t="n">
-        <v>60928</v>
+        <v>54761</v>
       </c>
       <c r="F15" t="n">
-        <v>37874</v>
+        <v>41798</v>
       </c>
       <c r="G15" t="n">
-        <v>37395</v>
+        <v>32978</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="I15" t="n">
-        <v>22924</v>
+        <v>18721</v>
       </c>
       <c r="J15" t="n">
-        <v>69371</v>
+        <v>60432</v>
       </c>
       <c r="K15" t="n">
-        <v>5915</v>
+        <v>221</v>
       </c>
       <c r="L15" t="n">
-        <v>4871</v>
+        <v>4554</v>
       </c>
       <c r="M15" t="n">
-        <v>6826</v>
+        <v>6304</v>
       </c>
       <c r="N15" t="n">
-        <v>1384</v>
+        <v>1264</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>679238</v>
+      </c>
+      <c r="R15" t="n">
+        <v>156557</v>
+      </c>
+      <c r="S15" t="n">
+        <v>137087</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12-14 00:18:03</t>
+          <t>2026-02-17 00:38:07</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91905</v>
+        <v>3513</v>
       </c>
       <c r="C16" t="n">
-        <v>123713</v>
+        <v>3116</v>
       </c>
       <c r="D16" t="n">
-        <v>33958</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>62117</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>38990</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>38131</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>23805</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>71112</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>5915</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>4974</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>6967</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1413</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1799970</v>
+        <v>5</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q16" t="n">
+        <v>120208</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-14 19:15:30</t>
+          <t>2026-02-17 00:48:23</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94219</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>127268</v>
+        <v>7892</v>
       </c>
       <c r="D17" t="n">
-        <v>34754</v>
+        <v>5515</v>
       </c>
       <c r="E17" t="n">
-        <v>64162</v>
+        <v>1432</v>
       </c>
       <c r="F17" t="n">
-        <v>39746</v>
+        <v>1396</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="H17" t="n">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>24409</v>
+        <v>965</v>
       </c>
       <c r="J17" t="n">
-        <v>72810</v>
+        <v>2663</v>
       </c>
       <c r="K17" t="n">
-        <v>5915</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="M17" t="n">
-        <v>7059</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1432</v>
+        <v>75</v>
       </c>
       <c r="O17" t="n">
-        <v>1800000</v>
+        <v>7</v>
       </c>
       <c r="P17" t="n">
-        <v>98377</v>
+        <v>28</v>
       </c>
       <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-14 20:42:58</t>
+          <t>2026-02-17 00:54:38</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>96577</v>
+        <v>11376</v>
       </c>
       <c r="C18" t="n">
-        <v>130026</v>
+        <v>8520</v>
       </c>
       <c r="D18" t="n">
-        <v>35953</v>
+        <v>813</v>
       </c>
       <c r="E18" t="n">
-        <v>65960</v>
+        <v>1432</v>
       </c>
       <c r="F18" t="n">
-        <v>40953</v>
+        <v>1396</v>
       </c>
       <c r="G18" t="n">
-        <v>39631</v>
+        <v>532</v>
       </c>
       <c r="H18" t="n">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>24734</v>
+        <v>965</v>
       </c>
       <c r="J18" t="n">
-        <v>74546</v>
+        <v>2663</v>
       </c>
       <c r="K18" t="n">
-        <v>5915</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>5351</v>
+        <v>261</v>
       </c>
       <c r="M18" t="n">
-        <v>7490</v>
+        <v>365</v>
       </c>
       <c r="N18" t="n">
-        <v>1520</v>
+        <v>75</v>
       </c>
       <c r="O18" t="n">
-        <v>1800000</v>
+        <v>7</v>
       </c>
       <c r="P18" t="n">
-        <v>193010</v>
+        <v>30</v>
       </c>
       <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-14 20:48:37</t>
+          <t>2026-02-17 16:03:56</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99183</v>
+        <v>14888</v>
       </c>
       <c r="C19" t="n">
-        <v>133215</v>
+        <v>14014</v>
       </c>
       <c r="D19" t="n">
-        <v>36911</v>
+        <v>4115</v>
       </c>
       <c r="E19" t="n">
-        <v>67505</v>
+        <v>5518</v>
       </c>
       <c r="F19" t="n">
-        <v>42350</v>
+        <v>4741</v>
       </c>
       <c r="G19" t="n">
-        <v>40589</v>
+        <v>4777</v>
       </c>
       <c r="H19" t="n">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="I19" t="n">
-        <v>25293</v>
+        <v>2623</v>
       </c>
       <c r="J19" t="n">
-        <v>76120</v>
+        <v>7317</v>
       </c>
       <c r="K19" t="n">
-        <v>5915</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5485</v>
+        <v>548</v>
       </c>
       <c r="M19" t="n">
-        <v>7676</v>
+        <v>765</v>
       </c>
       <c r="N19" t="n">
-        <v>1558</v>
+        <v>155</v>
       </c>
       <c r="O19" t="n">
-        <v>1800000</v>
+        <v>7</v>
       </c>
       <c r="P19" t="n">
-        <v>282185</v>
+        <v>30</v>
       </c>
       <c r="Q19" t="n">
+        <v>379056</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-14 21:34:26</t>
+          <t>2026-02-17 16:11:20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>101798</v>
+        <v>18713</v>
       </c>
       <c r="C20" t="n">
-        <v>136139</v>
+        <v>19812</v>
       </c>
       <c r="D20" t="n">
-        <v>37728</v>
+        <v>5056</v>
       </c>
       <c r="E20" t="n">
-        <v>69585</v>
+        <v>7526</v>
       </c>
       <c r="F20" t="n">
-        <v>43340</v>
+        <v>5777</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="H20" t="n">
-        <v>324</v>
+        <v>39</v>
       </c>
       <c r="I20" t="n">
-        <v>25773</v>
+        <v>3572</v>
       </c>
       <c r="J20" t="n">
-        <v>77894</v>
+        <v>9873</v>
       </c>
       <c r="K20" t="n">
-        <v>5915</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5594</v>
+        <v>914</v>
       </c>
       <c r="M20" t="n">
-        <v>7827</v>
+        <v>1272</v>
       </c>
       <c r="N20" t="n">
-        <v>1589</v>
+        <v>257</v>
       </c>
       <c r="O20" t="n">
-        <v>1800000</v>
+        <v>10</v>
       </c>
       <c r="P20" t="n">
-        <v>373687</v>
+        <v>32</v>
       </c>
       <c r="Q20" t="n">
+        <v>457260</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-14 22:11:40</t>
+          <t>2026-02-17 16:21:02</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>103613</v>
+        <v>22372</v>
       </c>
       <c r="C21" t="n">
-        <v>137654</v>
+        <v>23333</v>
       </c>
       <c r="D21" t="n">
-        <v>38591</v>
+        <v>6594</v>
       </c>
       <c r="E21" t="n">
-        <v>70979</v>
+        <v>8690</v>
       </c>
       <c r="F21" t="n">
-        <v>44060</v>
+        <v>7424</v>
       </c>
       <c r="G21" t="n">
-        <v>42577</v>
+        <v>7434</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>26485</v>
+        <v>4368</v>
       </c>
       <c r="J21" t="n">
-        <v>79402</v>
+        <v>12969</v>
       </c>
       <c r="K21" t="n">
-        <v>5915</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>5701</v>
+        <v>1054</v>
       </c>
       <c r="M21" t="n">
-        <v>7975</v>
+        <v>1469</v>
       </c>
       <c r="N21" t="n">
-        <v>1619</v>
+        <v>296</v>
       </c>
       <c r="O21" t="n">
-        <v>1800000</v>
+        <v>10</v>
       </c>
       <c r="P21" t="n">
-        <v>410934</v>
+        <v>37</v>
       </c>
       <c r="Q21" t="n">
+        <v>576798</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-15 14:01:59</t>
+          <t>2026-02-17 17:10:31</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>103950</v>
+        <v>28418</v>
       </c>
       <c r="C22" t="n">
-        <v>140451</v>
+        <v>29053</v>
       </c>
       <c r="D22" t="n">
-        <v>38676</v>
+        <v>8388</v>
       </c>
       <c r="E22" t="n">
-        <v>71327</v>
+        <v>11089</v>
       </c>
       <c r="F22" t="n">
-        <v>44180</v>
+        <v>9234</v>
       </c>
       <c r="G22" t="n">
-        <v>42699</v>
+        <v>2898</v>
       </c>
       <c r="H22" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>26713</v>
+        <v>5107</v>
       </c>
       <c r="J22" t="n">
-        <v>80114</v>
+        <v>15582</v>
       </c>
       <c r="K22" t="n">
-        <v>5915</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5839</v>
+        <v>1266</v>
       </c>
       <c r="M22" t="n">
-        <v>8167</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1659</v>
+        <v>355</v>
       </c>
       <c r="O22" t="n">
-        <v>1800000</v>
+        <v>10</v>
       </c>
       <c r="P22" t="n">
-        <v>502170</v>
+        <v>39</v>
       </c>
       <c r="Q22" t="n">
+        <v>690769</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-12-15 14:07:32</t>
+          <t>2026-02-17 17:20:45</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>106132</v>
+        <v>31751</v>
       </c>
       <c r="C23" t="n">
-        <v>143523</v>
+        <v>31849</v>
       </c>
       <c r="D23" t="n">
-        <v>39463</v>
+        <v>10406</v>
       </c>
       <c r="E23" t="n">
-        <v>72731</v>
+        <v>13191</v>
       </c>
       <c r="F23" t="n">
-        <v>45169</v>
+        <v>11383</v>
       </c>
       <c r="G23" t="n">
-        <v>43565</v>
+        <v>4023</v>
       </c>
       <c r="H23" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>27231</v>
+        <v>5999</v>
       </c>
       <c r="J23" t="n">
-        <v>81955</v>
+        <v>18104</v>
       </c>
       <c r="K23" t="n">
-        <v>5915</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5951</v>
+        <v>1361</v>
       </c>
       <c r="M23" t="n">
-        <v>8322</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1690</v>
+        <v>381</v>
       </c>
       <c r="O23" t="n">
-        <v>1800000</v>
+        <v>11</v>
       </c>
       <c r="P23" t="n">
-        <v>588771</v>
+        <v>39</v>
       </c>
       <c r="Q23" t="n">
+        <v>802385</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-12-15 14:51:07</t>
+          <t>2026-02-17 18:08:56</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>108210</v>
+        <v>35681</v>
       </c>
       <c r="C24" t="n">
-        <v>146149</v>
+        <v>36113</v>
       </c>
       <c r="D24" t="n">
-        <v>40541</v>
+        <v>11999</v>
       </c>
       <c r="E24" t="n">
-        <v>74213</v>
+        <v>15243</v>
       </c>
       <c r="F24" t="n">
-        <v>46197</v>
+        <v>13231</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4621</v>
       </c>
       <c r="H24" t="n">
-        <v>351</v>
+        <v>66</v>
       </c>
       <c r="I24" t="n">
-        <v>27965</v>
+        <v>6795</v>
       </c>
       <c r="J24" t="n">
-        <v>83360</v>
+        <v>20347</v>
       </c>
       <c r="K24" t="n">
-        <v>5915</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>6040</v>
+        <v>1529</v>
       </c>
       <c r="M24" t="n">
-        <v>8446</v>
+        <v>2124</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="O24" t="n">
-        <v>1800000</v>
+        <v>12</v>
       </c>
       <c r="P24" t="n">
-        <v>671502</v>
+        <v>42</v>
       </c>
       <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-12-15 15:38:32</t>
+          <t>2026-02-17 18:18:14</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110541</v>
+        <v>40764</v>
       </c>
       <c r="C25" t="n">
-        <v>149982</v>
+        <v>42143</v>
       </c>
       <c r="D25" t="n">
-        <v>41176</v>
+        <v>13200</v>
       </c>
       <c r="E25" t="n">
-        <v>75861</v>
+        <v>17988</v>
       </c>
       <c r="F25" t="n">
-        <v>46982</v>
+        <v>14412</v>
       </c>
       <c r="G25" t="n">
-        <v>45109</v>
+        <v>5628</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I25" t="n">
-        <v>28636</v>
+        <v>7931</v>
       </c>
       <c r="J25" t="n">
-        <v>85326</v>
+        <v>22705</v>
       </c>
       <c r="K25" t="n">
-        <v>5915</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>6067</v>
+        <v>1802</v>
       </c>
       <c r="M25" t="n">
-        <v>8483</v>
+        <v>2505</v>
       </c>
       <c r="N25" t="n">
-        <v>1723</v>
+        <v>504</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P25" t="n">
-        <v>771186</v>
+        <v>44</v>
       </c>
       <c r="Q25" t="n">
+        <v>1011951</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-12-15 17:19:16</t>
+          <t>2026-02-18 00:43:02</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>114873</v>
+        <v>3510</v>
       </c>
       <c r="C26" t="n">
-        <v>155816</v>
+        <v>3031</v>
       </c>
       <c r="D26" t="n">
-        <v>42120</v>
+        <v>15851</v>
       </c>
       <c r="E26" t="n">
-        <v>78970</v>
+        <v>19520</v>
       </c>
       <c r="F26" t="n">
-        <v>48265</v>
+        <v>16901</v>
       </c>
       <c r="G26" t="n">
-        <v>47183</v>
+        <v>6032</v>
       </c>
       <c r="H26" t="n">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="I26" t="n">
-        <v>29700</v>
+        <v>8580</v>
       </c>
       <c r="J26" t="n">
-        <v>89044</v>
+        <v>25234</v>
       </c>
       <c r="K26" t="n">
-        <v>5915</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>6244</v>
+        <v>2012</v>
       </c>
       <c r="M26" t="n">
-        <v>8728</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1773</v>
+        <v>562</v>
       </c>
       <c r="O26" t="n">
-        <v>1800000</v>
+        <v>13</v>
       </c>
       <c r="P26" t="n">
-        <v>944000</v>
+        <v>46</v>
       </c>
       <c r="Q26" t="n">
+        <v>43087</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-15 17:22:17</t>
+          <t>2026-02-18 00:51:00</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>116995</v>
+        <v>7438</v>
       </c>
       <c r="C27" t="n">
-        <v>158297</v>
+        <v>7387</v>
       </c>
       <c r="D27" t="n">
-        <v>43389</v>
+        <v>17817</v>
       </c>
       <c r="E27" t="n">
-        <v>80471</v>
+        <v>20725</v>
       </c>
       <c r="F27" t="n">
-        <v>49504</v>
+        <v>18784</v>
       </c>
       <c r="G27" t="n">
-        <v>48119</v>
+        <v>6359</v>
       </c>
       <c r="H27" t="n">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>30447</v>
+        <v>9649</v>
       </c>
       <c r="J27" t="n">
-        <v>90511</v>
+        <v>27715</v>
       </c>
       <c r="K27" t="n">
-        <v>5915</v>
+        <v>359</v>
       </c>
       <c r="L27" t="n">
-        <v>6380</v>
+        <v>2065</v>
       </c>
       <c r="M27" t="n">
-        <v>8917</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1811</v>
+        <v>577</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P27" t="n">
-        <v>984282</v>
+        <v>47</v>
       </c>
       <c r="Q27" t="n">
+        <v>170374</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-15 18:21:02</t>
+          <t>2026-02-18 01:00:24</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118016</v>
+        <v>11711</v>
       </c>
       <c r="C28" t="n">
-        <v>160773</v>
+        <v>12479</v>
       </c>
       <c r="D28" t="n">
-        <v>43593</v>
+        <v>20119</v>
       </c>
       <c r="E28" t="n">
-        <v>81527</v>
+        <v>22987</v>
       </c>
       <c r="F28" t="n">
-        <v>49777</v>
+        <v>21071</v>
       </c>
       <c r="G28" t="n">
-        <v>48879</v>
+        <v>7312</v>
       </c>
       <c r="H28" t="n">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>30593</v>
+        <v>10776</v>
       </c>
       <c r="J28" t="n">
-        <v>91329</v>
+        <v>29844</v>
       </c>
       <c r="K28" t="n">
-        <v>5915</v>
+        <v>359</v>
       </c>
       <c r="L28" t="n">
-        <v>6419</v>
+        <v>2326</v>
       </c>
       <c r="M28" t="n">
-        <v>8971</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1822</v>
+        <v>650</v>
       </c>
       <c r="O28" t="n">
-        <v>1800000</v>
+        <v>16</v>
       </c>
       <c r="P28" t="n">
-        <v>1069603</v>
+        <v>49</v>
       </c>
       <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-15 19:30:21</t>
+          <t>2026-02-18 01:07:14</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>120175</v>
+        <v>14401</v>
       </c>
       <c r="C29" t="n">
-        <v>164085</v>
+        <v>15177</v>
       </c>
       <c r="D29" t="n">
-        <v>44329</v>
+        <v>22749</v>
       </c>
       <c r="E29" t="n">
-        <v>82919</v>
+        <v>25579</v>
       </c>
       <c r="F29" t="n">
-        <v>50707</v>
+        <v>24019</v>
       </c>
       <c r="G29" t="n">
-        <v>49821</v>
+        <v>8477</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>31068</v>
+        <v>11600</v>
       </c>
       <c r="J29" t="n">
-        <v>93074</v>
+        <v>32667</v>
       </c>
       <c r="K29" t="n">
-        <v>5915</v>
+        <v>359</v>
       </c>
       <c r="L29" t="n">
-        <v>6604</v>
+        <v>2492</v>
       </c>
       <c r="M29" t="n">
-        <v>9227</v>
+        <v>3459</v>
       </c>
       <c r="N29" t="n">
-        <v>1874</v>
+        <v>695</v>
       </c>
       <c r="O29" t="n">
-        <v>1800000</v>
+        <v>17</v>
       </c>
       <c r="P29" t="n">
-        <v>1180821</v>
+        <v>49</v>
       </c>
       <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-15 19:38:11</t>
+          <t>2026-02-18 01:51:07</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>122999</v>
+        <v>18210</v>
       </c>
       <c r="C30" t="n">
-        <v>168716</v>
+        <v>19660</v>
       </c>
       <c r="D30" t="n">
-        <v>45208</v>
+        <v>23678</v>
       </c>
       <c r="E30" t="n">
-        <v>85098</v>
+        <v>27293</v>
       </c>
       <c r="F30" t="n">
-        <v>51557</v>
+        <v>24878</v>
       </c>
       <c r="G30" t="n">
-        <v>50303</v>
+        <v>9147</v>
       </c>
       <c r="H30" t="n">
-        <v>385</v>
+        <v>109</v>
       </c>
       <c r="I30" t="n">
-        <v>31579</v>
+        <v>12617</v>
       </c>
       <c r="J30" t="n">
-        <v>95267</v>
+        <v>34759</v>
       </c>
       <c r="K30" t="n">
-        <v>5915</v>
+        <v>359</v>
       </c>
       <c r="L30" t="n">
-        <v>6681</v>
+        <v>2643</v>
       </c>
       <c r="M30" t="n">
-        <v>9333</v>
+        <v>3669</v>
       </c>
       <c r="N30" t="n">
-        <v>1896</v>
+        <v>737</v>
       </c>
       <c r="O30" t="n">
-        <v>1800000</v>
+        <v>17</v>
       </c>
       <c r="P30" t="n">
-        <v>1291271</v>
+        <v>49</v>
       </c>
       <c r="Q30" t="n">
+        <v>500126</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-15 20:22:12</t>
+          <t>2026-02-18 02:00:34</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>125632</v>
+        <v>21902</v>
       </c>
       <c r="C31" t="n">
-        <v>169984</v>
+        <v>22596</v>
       </c>
       <c r="D31" t="n">
-        <v>46403</v>
+        <v>25423</v>
       </c>
       <c r="E31" t="n">
-        <v>86740</v>
+        <v>28722</v>
       </c>
       <c r="F31" t="n">
-        <v>52927</v>
+        <v>26437</v>
       </c>
       <c r="G31" t="n">
-        <v>51565</v>
+        <v>9325</v>
       </c>
       <c r="H31" t="n">
-        <v>389</v>
+        <v>109</v>
       </c>
       <c r="I31" t="n">
-        <v>32049</v>
+        <v>13250</v>
       </c>
       <c r="J31" t="n">
-        <v>97184</v>
+        <v>36641</v>
       </c>
       <c r="K31" t="n">
-        <v>5915</v>
+        <v>359</v>
       </c>
       <c r="L31" t="n">
-        <v>6746</v>
+        <v>2917</v>
       </c>
       <c r="M31" t="n">
-        <v>9424</v>
+        <v>4050</v>
       </c>
       <c r="N31" t="n">
-        <v>1915</v>
+        <v>815</v>
       </c>
       <c r="O31" t="n">
-        <v>1800000</v>
+        <v>18</v>
       </c>
       <c r="P31" t="n">
-        <v>1337646</v>
+        <v>49</v>
       </c>
       <c r="Q31" t="n">
+        <v>610991</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-16 00:19:17</t>
+          <t>2026-02-18 15:19:11</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>128122</v>
+        <v>26851</v>
       </c>
       <c r="C32" t="n">
-        <v>169984</v>
+        <v>29694</v>
       </c>
       <c r="D32" t="n">
-        <v>47354</v>
+        <v>27992</v>
       </c>
       <c r="E32" t="n">
-        <v>90427</v>
+        <v>31306</v>
       </c>
       <c r="F32" t="n">
-        <v>55709</v>
+        <v>29257</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>9947</v>
       </c>
       <c r="H32" t="n">
-        <v>393</v>
+        <v>116</v>
       </c>
       <c r="I32" t="n">
-        <v>33164</v>
+        <v>14986</v>
       </c>
       <c r="J32" t="n">
-        <v>100940</v>
+        <v>40638</v>
       </c>
       <c r="K32" t="n">
-        <v>5915</v>
+        <v>359</v>
       </c>
       <c r="L32" t="n">
-        <v>7125</v>
+        <v>3172</v>
       </c>
       <c r="M32" t="n">
-        <v>9948</v>
+        <v>4405</v>
       </c>
       <c r="N32" t="n">
-        <v>2022</v>
+        <v>886</v>
       </c>
       <c r="O32" t="n">
-        <v>1800000</v>
+        <v>21</v>
       </c>
       <c r="P32" t="n">
-        <v>1596480</v>
+        <v>53</v>
       </c>
       <c r="Q32" t="n">
+        <v>763677</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-16 01:11:16</t>
+          <t>2026-02-18 15:26:06</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>132939</v>
+        <v>28307</v>
       </c>
       <c r="C33" t="n">
-        <v>185475</v>
+        <v>32252</v>
       </c>
       <c r="D33" t="n">
-        <v>49499</v>
+        <v>28438</v>
       </c>
       <c r="E33" t="n">
-        <v>92911</v>
+        <v>32538</v>
       </c>
       <c r="F33" t="n">
-        <v>57001</v>
+        <v>29794</v>
       </c>
       <c r="G33" t="n">
-        <v>55390</v>
+        <v>10635</v>
       </c>
       <c r="H33" t="n">
-        <v>398</v>
+        <v>116</v>
       </c>
       <c r="I33" t="n">
-        <v>34156</v>
+        <v>16283</v>
       </c>
       <c r="J33" t="n">
-        <v>104368</v>
+        <v>42918</v>
       </c>
       <c r="K33" t="n">
-        <v>6127</v>
+        <v>862</v>
       </c>
       <c r="L33" t="n">
-        <v>7385</v>
+        <v>3278</v>
       </c>
       <c r="M33" t="n">
-        <v>10306</v>
+        <v>4819</v>
       </c>
       <c r="N33" t="n">
-        <v>2096</v>
+        <v>915</v>
       </c>
       <c r="O33" t="n">
-        <v>1800000</v>
+        <v>24</v>
       </c>
       <c r="P33" t="n">
-        <v>1711502</v>
+        <v>55</v>
       </c>
       <c r="Q33" t="n">
+        <v>849200</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-12-16 02:09:41</t>
+          <t>2026-02-18 15:34:52</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>135379</v>
+        <v>35009</v>
       </c>
       <c r="C34" t="n">
-        <v>185475</v>
+        <v>37264</v>
       </c>
       <c r="D34" t="n">
-        <v>50414</v>
+        <v>28992</v>
       </c>
       <c r="E34" t="n">
-        <v>93526</v>
+        <v>34109</v>
       </c>
       <c r="F34" t="n">
-        <v>57075</v>
+        <v>30618</v>
       </c>
       <c r="G34" t="n">
-        <v>55550</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>398</v>
+        <v>137</v>
       </c>
       <c r="I34" t="n">
-        <v>34156</v>
+        <v>17070</v>
       </c>
       <c r="J34" t="n">
-        <v>104798</v>
+        <v>44883</v>
       </c>
       <c r="K34" t="n">
-        <v>6127</v>
+        <v>862</v>
       </c>
       <c r="L34" t="n">
-        <v>7385</v>
+        <v>3309</v>
       </c>
       <c r="M34" t="n">
-        <v>10306</v>
+        <v>4863</v>
       </c>
       <c r="N34" t="n">
-        <v>2096</v>
+        <v>924</v>
       </c>
       <c r="O34" t="n">
-        <v>1800000</v>
+        <v>25</v>
       </c>
       <c r="P34" t="n">
-        <v>1800000</v>
+        <v>57</v>
       </c>
       <c r="Q34" t="n">
-        <v>4000</v>
+        <v>951889</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-12-16 02:15:21</t>
+          <t>2026-02-18 16:21:53</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>137301</v>
+        <v>38958</v>
       </c>
       <c r="C35" t="n">
-        <v>188238</v>
+        <v>42728</v>
       </c>
       <c r="D35" t="n">
-        <v>51296</v>
+        <v>31343</v>
       </c>
       <c r="E35" t="n">
-        <v>95219</v>
+        <v>36145</v>
       </c>
       <c r="F35" t="n">
-        <v>58078</v>
+        <v>33056</v>
       </c>
       <c r="G35" t="n">
-        <v>56578</v>
+        <v>12395</v>
       </c>
       <c r="H35" t="n">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34758</v>
+        <v>18244</v>
       </c>
       <c r="J35" t="n">
-        <v>106299</v>
+        <v>47250</v>
       </c>
       <c r="K35" t="n">
-        <v>6127</v>
+        <v>862</v>
       </c>
       <c r="L35" t="n">
-        <v>7385</v>
+        <v>3447</v>
       </c>
       <c r="M35" t="n">
-        <v>10306</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2096</v>
+        <v>962</v>
       </c>
       <c r="O35" t="n">
-        <v>1800000</v>
+        <v>27</v>
       </c>
       <c r="P35" t="n">
-        <v>1800000</v>
+        <v>59</v>
       </c>
       <c r="Q35" t="n">
-        <v>89009</v>
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-12-17 01:51:36</t>
+          <t>2026-02-18 16:30:20</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>41918</v>
       </c>
       <c r="C36" t="n">
-        <v>190896</v>
+        <v>46206</v>
       </c>
       <c r="D36" t="n">
-        <v>51830</v>
+        <v>33488</v>
       </c>
       <c r="E36" t="n">
-        <v>96826</v>
+        <v>37465</v>
       </c>
       <c r="F36" t="n">
-        <v>58737</v>
+        <v>35277</v>
       </c>
       <c r="G36" t="n">
-        <v>57814</v>
+        <v>13500</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>35444</v>
+        <v>19267</v>
       </c>
       <c r="J36" t="n">
-        <v>108106</v>
+        <v>49812</v>
       </c>
       <c r="K36" t="n">
-        <v>6127</v>
+        <v>862</v>
       </c>
       <c r="L36" t="n">
-        <v>7553</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>10537</v>
+        <v>5346</v>
       </c>
       <c r="N36" t="n">
-        <v>2144</v>
+        <v>1020</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P36" t="n">
-        <v>1800000</v>
+        <v>60</v>
       </c>
       <c r="Q36" t="n">
-        <v>185663</v>
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-12-17 02:40:53</t>
+          <t>2026-02-18 17:16:38</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1633</v>
+        <v>43604</v>
       </c>
       <c r="C37" t="n">
-        <v>195498</v>
+        <v>48434</v>
       </c>
       <c r="D37" t="n">
-        <v>52451</v>
+        <v>34273</v>
       </c>
       <c r="E37" t="n">
-        <v>98272</v>
+        <v>39534</v>
       </c>
       <c r="F37" t="n">
-        <v>59280</v>
+        <v>36585</v>
       </c>
       <c r="G37" t="n">
-        <v>58356</v>
+        <v>13807</v>
       </c>
       <c r="H37" t="n">
-        <v>414</v>
+        <v>177</v>
       </c>
       <c r="I37" t="n">
-        <v>36011</v>
+        <v>20294</v>
       </c>
       <c r="J37" t="n">
-        <v>109700</v>
+        <v>52183</v>
       </c>
       <c r="K37" t="n">
-        <v>6127</v>
+        <v>862</v>
       </c>
       <c r="L37" t="n">
-        <v>7661</v>
+        <v>3930</v>
       </c>
       <c r="M37" t="n">
-        <v>10687</v>
+        <v>5726</v>
       </c>
       <c r="N37" t="n">
-        <v>2174</v>
+        <v>1096</v>
       </c>
       <c r="O37" t="n">
-        <v>1800000</v>
+        <v>29</v>
       </c>
       <c r="P37" t="n">
-        <v>1800000</v>
+        <v>61</v>
       </c>
       <c r="Q37" t="n">
-        <v>291494</v>
+        <v>1230158</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-12-17 03:29:08</t>
+          <t>2026-02-18 17:24:25</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4329</v>
+        <v>48319</v>
       </c>
       <c r="C38" t="n">
-        <v>198386</v>
+        <v>53636</v>
       </c>
       <c r="D38" t="n">
-        <v>53538</v>
+        <v>35287</v>
       </c>
       <c r="E38" t="n">
-        <v>100101</v>
+        <v>41274</v>
       </c>
       <c r="F38" t="n">
-        <v>60435</v>
+        <v>37800</v>
       </c>
       <c r="G38" t="n">
-        <v>60060</v>
+        <v>13986</v>
       </c>
       <c r="H38" t="n">
-        <v>422</v>
+        <v>183</v>
       </c>
       <c r="I38" t="n">
-        <v>36491</v>
+        <v>20883</v>
       </c>
       <c r="J38" t="n">
-        <v>111505</v>
+        <v>54131</v>
       </c>
       <c r="K38" t="n">
-        <v>6127</v>
+        <v>862</v>
       </c>
       <c r="L38" t="n">
-        <v>7780</v>
+        <v>4138</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>6018</v>
       </c>
       <c r="N38" t="n">
-        <v>2209</v>
+        <v>1155</v>
       </c>
       <c r="O38" t="n">
-        <v>1800000</v>
+        <v>30</v>
       </c>
       <c r="P38" t="n">
-        <v>1800000</v>
+        <v>62</v>
       </c>
       <c r="Q38" t="n">
-        <v>407898</v>
+        <v>1311094</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-12-17 15:30:53</t>
+          <t>2026-02-18 17:31:14</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7035</v>
+        <v>50016</v>
       </c>
       <c r="C39" t="n">
-        <v>201968</v>
+        <v>55665</v>
       </c>
       <c r="D39" t="n">
-        <v>54535</v>
+        <v>36710</v>
       </c>
       <c r="E39" t="n">
-        <v>102285</v>
+        <v>43464</v>
       </c>
       <c r="F39" t="n">
-        <v>61592</v>
+        <v>39535</v>
       </c>
       <c r="G39" t="n">
-        <v>61216</v>
+        <v>15224</v>
       </c>
       <c r="H39" t="n">
-        <v>424</v>
+        <v>193</v>
       </c>
       <c r="I39" t="n">
-        <v>36886</v>
+        <v>203</v>
       </c>
       <c r="J39" t="n">
-        <v>113089</v>
+        <v>56465</v>
       </c>
       <c r="K39" t="n">
-        <v>6127</v>
+        <v>1112</v>
       </c>
       <c r="L39" t="n">
-        <v>7821</v>
+        <v>4346</v>
       </c>
       <c r="M39" t="n">
-        <v>10908</v>
+        <v>6304</v>
       </c>
       <c r="N39" t="n">
-        <v>2221</v>
+        <v>1211</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P39" t="n">
-        <v>1800000</v>
+        <v>63</v>
       </c>
       <c r="Q39" t="n">
-        <v>523194</v>
+        <v>1390102</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-12-17 16:22:08</t>
+          <t>2026-02-19 14:28:21</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10183</v>
+        <v>26269</v>
       </c>
       <c r="C40" t="n">
-        <v>203991</v>
+        <v>61583</v>
       </c>
       <c r="D40" t="n">
-        <v>55518</v>
+        <v>38453</v>
       </c>
       <c r="E40" t="n">
-        <v>104190</v>
+        <v>45553</v>
       </c>
       <c r="F40" t="n">
-        <v>62716</v>
+        <v>44909</v>
       </c>
       <c r="G40" t="n">
-        <v>62458</v>
+        <v>15582</v>
       </c>
       <c r="H40" t="n">
-        <v>424</v>
+        <v>205</v>
       </c>
       <c r="I40" t="n">
-        <v>37599</v>
+        <v>22507</v>
       </c>
       <c r="J40" t="n">
-        <v>114861</v>
+        <v>59712</v>
       </c>
       <c r="K40" t="n">
-        <v>6127</v>
+        <v>1112</v>
       </c>
       <c r="L40" t="n">
-        <v>7977</v>
+        <v>4849</v>
       </c>
       <c r="M40" t="n">
-        <v>11125</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2266</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1800000</v>
+        <v>34</v>
       </c>
       <c r="P40" t="n">
-        <v>1800000</v>
+        <v>65</v>
       </c>
       <c r="Q40" t="n">
-        <v>633896</v>
+        <v>85039</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-12-17 16:27:31</t>
+          <t>2026-02-19 14:36:15</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>12558</v>
+        <v>29884</v>
       </c>
       <c r="C41" t="n">
-        <v>206283</v>
+        <v>65389</v>
       </c>
       <c r="D41" t="n">
-        <v>56731</v>
+        <v>40011</v>
       </c>
       <c r="E41" t="n">
-        <v>105830</v>
+        <v>47579</v>
       </c>
       <c r="F41" t="n">
-        <v>63794</v>
+        <v>46742</v>
       </c>
       <c r="G41" t="n">
-        <v>63102</v>
+        <v>16630</v>
       </c>
       <c r="H41" t="n">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="I41" t="n">
-        <v>38140</v>
+        <v>23096</v>
       </c>
       <c r="J41" t="n">
-        <v>116371</v>
+        <v>61387</v>
       </c>
       <c r="K41" t="n">
-        <v>6127</v>
+        <v>1112</v>
       </c>
       <c r="L41" t="n">
-        <v>8162</v>
+        <v>5081</v>
       </c>
       <c r="M41" t="n">
-        <v>11381</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>2318</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1800000</v>
+        <v>36</v>
       </c>
       <c r="P41" t="n">
-        <v>1800000</v>
+        <v>66</v>
       </c>
       <c r="Q41" t="n">
-        <v>709529</v>
+        <v>211229</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-12-17 17:16:45</t>
+          <t>2026-02-19 14:41:29</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>14786</v>
+        <v>33534</v>
       </c>
       <c r="C42" t="n">
-        <v>209544</v>
+        <v>70243</v>
       </c>
       <c r="D42" t="n">
-        <v>57501</v>
+        <v>41558</v>
       </c>
       <c r="E42" t="n">
-        <v>107152</v>
+        <v>48824</v>
       </c>
       <c r="F42" t="n">
-        <v>64694</v>
+        <v>48877</v>
       </c>
       <c r="G42" t="n">
-        <v>63382</v>
+        <v>17190</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="I42" t="n">
-        <v>38610</v>
+        <v>24083</v>
       </c>
       <c r="J42" t="n">
-        <v>118199</v>
+        <v>64146</v>
       </c>
       <c r="K42" t="n">
-        <v>6127</v>
+        <v>1112</v>
       </c>
       <c r="L42" t="n">
-        <v>8235</v>
+        <v>5219</v>
       </c>
       <c r="M42" t="n">
-        <v>11482</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>2339</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="P42" t="n">
-        <v>1800000</v>
+        <v>68</v>
       </c>
       <c r="Q42" t="n">
-        <v>811406</v>
+        <v>280171</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-12-17 18:11:21</t>
+          <t>2026-02-19 14:46:58</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16706</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>211716</v>
+        <v>36585</v>
       </c>
       <c r="D43" t="n">
-        <v>58517</v>
+        <v>73250</v>
       </c>
       <c r="E43" t="n">
-        <v>108434</v>
+        <v>49786</v>
       </c>
       <c r="F43" t="n">
-        <v>65754</v>
+        <v>50091</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>17903</v>
       </c>
       <c r="H43" t="n">
-        <v>437</v>
+        <v>248</v>
       </c>
       <c r="I43" t="n">
-        <v>39311</v>
+        <v>24754</v>
       </c>
       <c r="J43" t="n">
-        <v>119739</v>
+        <v>66523</v>
       </c>
       <c r="K43" t="n">
-        <v>6127</v>
+        <v>1843</v>
       </c>
       <c r="L43" t="n">
-        <v>8488</v>
+        <v>5336</v>
       </c>
       <c r="M43" t="n">
-        <v>11832</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2411</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1800000</v>
+        <v>38</v>
       </c>
       <c r="P43" t="n">
-        <v>1800000</v>
+        <v>69</v>
       </c>
       <c r="Q43" t="n">
-        <v>896068</v>
+        <v>348431</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-12-18 00:11:35</t>
+          <t>2026-02-19 14:52:34</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>20448</v>
+        <v>38442</v>
       </c>
       <c r="C44" t="n">
-        <v>220961</v>
+        <v>74874</v>
       </c>
       <c r="D44" t="n">
-        <v>59854</v>
+        <v>42542</v>
       </c>
       <c r="E44" t="n">
-        <v>111879</v>
+        <v>49786</v>
       </c>
       <c r="F44" t="n">
-        <v>67141</v>
+        <v>50091</v>
       </c>
       <c r="G44" t="n">
-        <v>72799</v>
+        <v>17903</v>
       </c>
       <c r="H44" t="n">
-        <v>447</v>
+        <v>248</v>
       </c>
       <c r="I44" t="n">
-        <v>40447</v>
+        <v>24754</v>
       </c>
       <c r="J44" t="n">
-        <v>122641</v>
+        <v>66523</v>
       </c>
       <c r="K44" t="n">
-        <v>6127</v>
+        <v>1843</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>5336</v>
       </c>
       <c r="M44" t="n">
-        <v>12122</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2419</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>95132</v>
+        <v>40</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>432091</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-12-18 00:55:54</t>
+          <t>2026-02-19 15:38:58</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>21952</v>
+        <v>43435</v>
       </c>
       <c r="C45" t="n">
-        <v>224257</v>
+        <v>80580</v>
       </c>
       <c r="D45" t="n">
-        <v>60576</v>
+        <v>43612</v>
       </c>
       <c r="E45" t="n">
-        <v>112915</v>
+        <v>51053</v>
       </c>
       <c r="F45" t="n">
-        <v>68007</v>
+        <v>51466</v>
       </c>
       <c r="G45" t="n">
-        <v>72799</v>
+        <v>18264</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>40974</v>
+        <v>25650</v>
       </c>
       <c r="J45" t="n">
-        <v>123992</v>
+        <v>68877</v>
       </c>
       <c r="K45" t="n">
-        <v>6369</v>
+        <v>1843</v>
       </c>
       <c r="L45" t="n">
-        <v>8695</v>
+        <v>5456</v>
       </c>
       <c r="M45" t="n">
-        <v>12456</v>
+        <v>7879</v>
       </c>
       <c r="N45" t="n">
-        <v>2451</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-12-18 12:55:46</t>
+          <t>2026-02-19 15:47:52</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>23814</v>
+        <v>46057</v>
       </c>
       <c r="C46" t="n">
-        <v>227918</v>
+        <v>83775</v>
       </c>
       <c r="D46" t="n">
-        <v>61175</v>
+        <v>44455</v>
       </c>
       <c r="E46" t="n">
-        <v>114175</v>
+        <v>53164</v>
       </c>
       <c r="F46" t="n">
-        <v>68726</v>
+        <v>52647</v>
       </c>
       <c r="G46" t="n">
-        <v>73643</v>
+        <v>19219</v>
       </c>
       <c r="H46" t="n">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>41736</v>
+        <v>26156</v>
       </c>
       <c r="J46" t="n">
-        <v>125925</v>
+        <v>71050</v>
       </c>
       <c r="K46" t="n">
-        <v>6369</v>
+        <v>1843</v>
       </c>
       <c r="L46" t="n">
-        <v>8759</v>
+        <v>5817</v>
       </c>
       <c r="M46" t="n">
-        <v>12544</v>
+        <v>8378</v>
       </c>
       <c r="N46" t="n">
-        <v>2469</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>278570</v>
+        <v>44</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-12-18 13:01:11</t>
+          <t>2026-02-19 15:56:39</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>26957</v>
+        <v>49435</v>
       </c>
       <c r="C47" t="n">
-        <v>230975</v>
+        <v>88080</v>
       </c>
       <c r="D47" t="n">
-        <v>62321</v>
+        <v>45809</v>
       </c>
       <c r="E47" t="n">
-        <v>115388</v>
+        <v>54821</v>
       </c>
       <c r="F47" t="n">
-        <v>70300</v>
+        <v>53863</v>
       </c>
       <c r="G47" t="n">
-        <v>74513</v>
+        <v>19644</v>
       </c>
       <c r="H47" t="n">
-        <v>499</v>
+        <v>271</v>
       </c>
       <c r="I47" t="n">
-        <v>42400</v>
+        <v>26983</v>
       </c>
       <c r="J47" t="n">
-        <v>128208</v>
+        <v>73111</v>
       </c>
       <c r="K47" t="n">
-        <v>6369</v>
+        <v>1843</v>
       </c>
       <c r="L47" t="n">
-        <v>8901</v>
+        <v>6051</v>
       </c>
       <c r="M47" t="n">
-        <v>12741</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>2510</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>374419</v>
+        <v>45</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-12-18 13:55:10</t>
+          <t>2026-02-19 16:45:54</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>29342</v>
+        <v>52946</v>
       </c>
       <c r="C48" t="n">
-        <v>234043</v>
+        <v>90795</v>
       </c>
       <c r="D48" t="n">
-        <v>63433</v>
+        <v>46743</v>
       </c>
       <c r="E48" t="n">
-        <v>117042</v>
+        <v>56188</v>
       </c>
       <c r="F48" t="n">
-        <v>71310</v>
+        <v>55014</v>
       </c>
       <c r="G48" t="n">
-        <v>76299</v>
+        <v>20186</v>
       </c>
       <c r="H48" t="n">
-        <v>504</v>
+        <v>279</v>
       </c>
       <c r="I48" t="n">
-        <v>42900</v>
+        <v>27851</v>
       </c>
       <c r="J48" t="n">
-        <v>129608</v>
+        <v>75820</v>
       </c>
       <c r="K48" t="n">
-        <v>6369</v>
+        <v>1843</v>
       </c>
       <c r="L48" t="n">
-        <v>9049</v>
+        <v>6051</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>2552</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>477517</v>
+        <v>47</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="Q48" t="n">
+        <v>802414</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-12-18 13:57:41</t>
+          <t>2026-02-19 16:58:01</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>32276</v>
+        <v>56013</v>
       </c>
       <c r="C49" t="n">
-        <v>234043</v>
+        <v>93980</v>
       </c>
       <c r="D49" t="n">
-        <v>65186</v>
+        <v>48811</v>
       </c>
       <c r="E49" t="n">
-        <v>117862</v>
+        <v>58195</v>
       </c>
       <c r="F49" t="n">
-        <v>73293</v>
+        <v>56974</v>
       </c>
       <c r="G49" t="n">
-        <v>76701</v>
+        <v>20211</v>
       </c>
       <c r="H49" t="n">
-        <v>519</v>
+        <v>288</v>
       </c>
       <c r="I49" t="n">
-        <v>43559</v>
+        <v>28479</v>
       </c>
       <c r="J49" t="n">
-        <v>131642</v>
+        <v>77715</v>
       </c>
       <c r="K49" t="n">
-        <v>6369</v>
+        <v>1843</v>
       </c>
       <c r="L49" t="n">
-        <v>9159</v>
+        <v>6204</v>
       </c>
       <c r="M49" t="n">
-        <v>13098</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>2584</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>499095</v>
+        <v>50</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="Q49" t="n">
+        <v>939640</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-12-18 14:42:35</t>
+          <t>2026-02-20 13:31:43</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>33165</v>
+        <v>61827</v>
       </c>
       <c r="C50" t="n">
-        <v>236786</v>
+        <v>105230</v>
       </c>
       <c r="D50" t="n">
-        <v>65887</v>
+        <v>52896</v>
       </c>
       <c r="E50" t="n">
-        <v>118202</v>
+        <v>62615</v>
       </c>
       <c r="F50" t="n">
-        <v>73782</v>
+        <v>61700</v>
       </c>
       <c r="G50" t="n">
-        <v>76701</v>
+        <v>25489</v>
       </c>
       <c r="H50" t="n">
-        <v>521</v>
+        <v>308</v>
       </c>
       <c r="I50" t="n">
-        <v>43649</v>
+        <v>30292</v>
       </c>
       <c r="J50" t="n">
-        <v>131998</v>
+        <v>84703</v>
       </c>
       <c r="K50" t="n">
-        <v>6369</v>
+        <v>4979</v>
       </c>
       <c r="L50" t="n">
-        <v>9159</v>
+        <v>6489</v>
       </c>
       <c r="M50" t="n">
-        <v>13098</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>2584</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>601550</v>
+        <v>51</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="Q50" t="n">
+        <v>1075539</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-12-18 14:44:59</t>
+          <t>2026-02-20 13:42:03</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>36062</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>236786</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>67432</v>
+        <v>37373</v>
       </c>
       <c r="E51" t="n">
-        <v>119684</v>
+        <v>63800</v>
       </c>
       <c r="F51" t="n">
-        <v>75378</v>
+        <v>63515</v>
       </c>
       <c r="G51" t="n">
-        <v>77571</v>
+        <v>26292</v>
       </c>
       <c r="H51" t="n">
-        <v>542</v>
+        <v>323</v>
       </c>
       <c r="I51" t="n">
-        <v>44321</v>
+        <v>30947</v>
       </c>
       <c r="J51" t="n">
-        <v>133525</v>
+        <v>86540</v>
       </c>
       <c r="K51" t="n">
-        <v>6369</v>
+        <v>4979</v>
       </c>
       <c r="L51" t="n">
-        <v>9343</v>
+        <v>6621</v>
       </c>
       <c r="M51" t="n">
-        <v>13354</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>2637</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>617824</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Q51" t="n">
+        <v>1200620</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-12-18 15:46:42</t>
+          <t>2026-02-20 14:29:13</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>36892</v>
+        <v>41359</v>
       </c>
       <c r="C52" t="n">
-        <v>241021</v>
+        <v>108286</v>
       </c>
       <c r="D52" t="n">
-        <v>67870</v>
+        <v>54421</v>
       </c>
       <c r="E52" t="n">
-        <v>119962</v>
+        <v>63800</v>
       </c>
       <c r="F52" t="n">
-        <v>75782</v>
+        <v>63515</v>
       </c>
       <c r="G52" t="n">
-        <v>77723</v>
+        <v>26292</v>
       </c>
       <c r="H52" t="n">
-        <v>542</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>44349</v>
+        <v>30947</v>
       </c>
       <c r="J52" t="n">
-        <v>133851</v>
+        <v>86540</v>
       </c>
       <c r="K52" t="n">
-        <v>6369</v>
+        <v>4979</v>
       </c>
       <c r="L52" t="n">
-        <v>9389</v>
+        <v>6621</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>2650</v>
+        <v>1842</v>
       </c>
       <c r="O52" t="n">
-        <v>711462</v>
+        <v>55</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="Q52" t="n">
+        <v>1280571</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-12-18 16:31:03</t>
+          <t>2026-02-20 14:40:07</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>38780</v>
+        <v>45658</v>
       </c>
       <c r="C53" t="n">
-        <v>243960</v>
+        <v>111167</v>
       </c>
       <c r="D53" t="n">
-        <v>68762</v>
+        <v>56006</v>
       </c>
       <c r="E53" t="n">
-        <v>121904</v>
+        <v>65919</v>
       </c>
       <c r="F53" t="n">
-        <v>76467</v>
+        <v>65904</v>
       </c>
       <c r="G53" t="n">
-        <v>78569</v>
+        <v>26934</v>
       </c>
       <c r="H53" t="n">
-        <v>544</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>45206</v>
+        <v>31782</v>
       </c>
       <c r="J53" t="n">
-        <v>135849</v>
+        <v>88718</v>
       </c>
       <c r="K53" t="n">
-        <v>6369</v>
+        <v>4979</v>
       </c>
       <c r="L53" t="n">
-        <v>9668</v>
+        <v>6679</v>
       </c>
       <c r="M53" t="n">
-        <v>13801</v>
+        <v>10311</v>
       </c>
       <c r="N53" t="n">
-        <v>2729</v>
+        <v>1858</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="Q53" t="n">
+        <v>1398459</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-12-18 16:37:12</t>
+          <t>2026-02-20 15:27:19</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>40923</v>
+        <v>47880</v>
       </c>
       <c r="C54" t="n">
-        <v>245603</v>
+        <v>112904</v>
       </c>
       <c r="D54" t="n">
-        <v>69249</v>
+        <v>57614</v>
       </c>
       <c r="E54" t="n">
-        <v>123802</v>
+        <v>67849</v>
       </c>
       <c r="F54" t="n">
-        <v>77232</v>
+        <v>67727</v>
       </c>
       <c r="G54" t="n">
-        <v>79451</v>
+        <v>27165</v>
       </c>
       <c r="H54" t="n">
-        <v>556</v>
+        <v>337</v>
       </c>
       <c r="I54" t="n">
-        <v>45558</v>
+        <v>32839</v>
       </c>
       <c r="J54" t="n">
-        <v>137213</v>
+        <v>90815</v>
       </c>
       <c r="K54" t="n">
-        <v>6369</v>
+        <v>4979</v>
       </c>
       <c r="L54" t="n">
-        <v>9798</v>
+        <v>6849</v>
       </c>
       <c r="M54" t="n">
-        <v>13981</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>2766</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>892170</v>
+        <v>59</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="Q54" t="n">
+        <v>1482123</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-12-18 17:27:11</t>
+          <t>2026-02-20 15:36:18</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>42886</v>
+        <v>49539</v>
       </c>
       <c r="C55" t="n">
-        <v>247992</v>
+        <v>116147</v>
       </c>
       <c r="D55" t="n">
-        <v>70192</v>
+        <v>58838</v>
       </c>
       <c r="E55" t="n">
-        <v>125319</v>
+        <v>69517</v>
       </c>
       <c r="F55" t="n">
-        <v>78201</v>
+        <v>69077</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>27440</v>
       </c>
       <c r="H55" t="n">
-        <v>559</v>
+        <v>348</v>
       </c>
       <c r="I55" t="n">
-        <v>46671</v>
+        <v>33763</v>
       </c>
       <c r="J55" t="n">
-        <v>138695</v>
+        <v>92631</v>
       </c>
       <c r="K55" t="n">
-        <v>6369</v>
+        <v>4979</v>
       </c>
       <c r="L55" t="n">
-        <v>10150</v>
+        <v>6967</v>
       </c>
       <c r="M55" t="n">
-        <v>14469</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>2866</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>992146</v>
+        <v>59</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="Q55" t="n">
+        <v>1582825</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-12-18 21:41:56</t>
+          <t>2026-02-20 15:46:59</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>45804</v>
+        <v>54162</v>
       </c>
       <c r="C56" t="n">
-        <v>249650</v>
+        <v>121930</v>
       </c>
       <c r="D56" t="n">
-        <v>70934</v>
+        <v>59815</v>
       </c>
       <c r="E56" t="n">
-        <v>127605</v>
+        <v>71377</v>
       </c>
       <c r="F56" t="n">
-        <v>79368</v>
+        <v>70027</v>
       </c>
       <c r="G56" t="n">
-        <v>80163</v>
+        <v>27625</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="I56" t="n">
-        <v>47371</v>
+        <v>34405</v>
       </c>
       <c r="J56" t="n">
-        <v>140568</v>
+        <v>94528</v>
       </c>
       <c r="K56" t="n">
-        <v>6369</v>
+        <v>4979</v>
       </c>
       <c r="L56" t="n">
-        <v>10266</v>
+        <v>7030</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>2899</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>1043697</v>
+        <v>60</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="Q56" t="n">
+        <v>1690724</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-12-18 21:47:12</t>
+          <t>2026-02-20 17:10:23</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>47305</v>
+        <v>59382</v>
       </c>
       <c r="C57" t="n">
-        <v>253184</v>
+        <v>126987</v>
       </c>
       <c r="D57" t="n">
-        <v>71591</v>
+        <v>61083</v>
       </c>
       <c r="E57" t="n">
-        <v>128761</v>
+        <v>73777</v>
       </c>
       <c r="F57" t="n">
-        <v>80030</v>
+        <v>71204</v>
       </c>
       <c r="G57" t="n">
-        <v>80843</v>
+        <v>28870</v>
       </c>
       <c r="H57" t="n">
-        <v>571</v>
+        <v>360</v>
       </c>
       <c r="I57" t="n">
-        <v>47818</v>
+        <v>35366</v>
       </c>
       <c r="J57" t="n">
-        <v>141711</v>
+        <v>97645</v>
       </c>
       <c r="K57" t="n">
-        <v>6369</v>
+        <v>4979</v>
       </c>
       <c r="L57" t="n">
-        <v>10380</v>
+        <v>7537</v>
       </c>
       <c r="M57" t="n">
-        <v>14788</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>2931</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>1147427</v>
+        <v>63</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="Q57" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="R57" t="n">
+        <v>20001</v>
+      </c>
+      <c r="S57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-12-19 01:15:55</t>
+          <t>2026-02-20 17:18:37</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>49997</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>255690</v>
+        <v>62025</v>
       </c>
       <c r="D58" t="n">
-        <v>72576</v>
+        <v>128860</v>
       </c>
       <c r="E58" t="n">
-        <v>130303</v>
+        <v>76880</v>
       </c>
       <c r="F58" t="n">
-        <v>80942</v>
+        <v>72954</v>
       </c>
       <c r="G58" t="n">
-        <v>81455</v>
+        <v>29665</v>
       </c>
       <c r="H58" t="n">
-        <v>571</v>
+        <v>379</v>
       </c>
       <c r="I58" t="n">
-        <v>48529</v>
+        <v>35967</v>
       </c>
       <c r="J58" t="n">
-        <v>143926</v>
+        <v>100276</v>
       </c>
       <c r="K58" t="n">
-        <v>6369</v>
+        <v>4979</v>
       </c>
       <c r="L58" t="n">
-        <v>10380</v>
+        <v>7735</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>2931</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>1228488</v>
+        <v>66</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="Q58" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="R58" t="n">
+        <v>117099</v>
+      </c>
+      <c r="S58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-12-19 01:17:53</t>
+          <t>2026-02-20 17:26:49</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>51873</v>
+        <v>66218</v>
       </c>
       <c r="C59" t="n">
-        <v>256290</v>
+        <v>134533</v>
       </c>
       <c r="D59" t="n">
-        <v>73361</v>
+        <v>62333</v>
       </c>
       <c r="E59" t="n">
-        <v>131532</v>
+        <v>78040</v>
       </c>
       <c r="F59" t="n">
-        <v>81840</v>
+        <v>74168</v>
       </c>
       <c r="G59" t="n">
-        <v>81765</v>
+        <v>30011</v>
       </c>
       <c r="H59" t="n">
-        <v>583</v>
+        <v>393</v>
       </c>
       <c r="I59" t="n">
-        <v>49036</v>
+        <v>36514</v>
       </c>
       <c r="J59" t="n">
-        <v>145633</v>
+        <v>102840</v>
       </c>
       <c r="K59" t="n">
-        <v>6369</v>
+        <v>5678</v>
       </c>
       <c r="L59" t="n">
-        <v>10520</v>
+        <v>7788</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>2971</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>1253934</v>
+        <v>68</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="Q59" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="R59" t="n">
+        <v>220134</v>
+      </c>
+      <c r="S59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-12-19 01:23:28</t>
+          <t>2026-02-20 17:34:16</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>52348</v>
+        <v>69118</v>
       </c>
       <c r="C60" t="n">
-        <v>261130</v>
+        <v>138880</v>
       </c>
       <c r="D60" t="n">
-        <v>73521</v>
+        <v>64470</v>
       </c>
       <c r="E60" t="n">
-        <v>131792</v>
+        <v>79593</v>
       </c>
       <c r="F60" t="n">
-        <v>82039</v>
+        <v>76323</v>
       </c>
       <c r="G60" t="n">
-        <v>81947</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>587</v>
+        <v>402</v>
       </c>
       <c r="I60" t="n">
-        <v>49253</v>
+        <v>37099</v>
       </c>
       <c r="J60" t="n">
-        <v>146362</v>
+        <v>105279</v>
       </c>
       <c r="K60" t="n">
-        <v>6369</v>
+        <v>5678</v>
       </c>
       <c r="L60" t="n">
-        <v>10638</v>
+        <v>7937</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>3005</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1345578</v>
+        <v>69</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="Q60" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="R60" t="n">
+        <v>330800</v>
+      </c>
+      <c r="S60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-12-19 02:04:33</t>
+          <t>2026-02-23 21:13:46</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>4914</v>
       </c>
       <c r="C61" t="n">
-        <v>261130</v>
+        <v>7315</v>
       </c>
       <c r="D61" t="n">
-        <v>74524</v>
+        <v>28</v>
       </c>
       <c r="E61" t="n">
-        <v>133530</v>
+        <v>634</v>
       </c>
       <c r="F61" t="n">
-        <v>83131</v>
+        <v>47</v>
       </c>
       <c r="G61" t="n">
-        <v>83161</v>
+        <v>807</v>
       </c>
       <c r="H61" t="n">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>49987</v>
+        <v>94</v>
       </c>
       <c r="J61" t="n">
-        <v>148612</v>
+        <v>1504</v>
       </c>
       <c r="K61" t="n">
-        <v>6369</v>
+        <v>1585</v>
       </c>
       <c r="L61" t="n">
-        <v>10931</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>15551</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>3086</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-02-23 21:20:27</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>7047</v>
+      </c>
+      <c r="C62" t="n">
+        <v>8761</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3746</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1812</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1625</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>990</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4185</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>183</v>
+      </c>
+      <c r="M62" t="n">
+        <v>254</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>72</v>
+      </c>
+      <c r="P62" t="n">
+        <v>108</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-02-23 21:26:59</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>10522</v>
+      </c>
+      <c r="C63" t="n">
+        <v>13968</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2527</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5438</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3308</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2203</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1565</v>
+      </c>
+      <c r="J63" t="n">
+        <v>6218</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>384</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>75</v>
+      </c>
+      <c r="P63" t="n">
+        <v>111</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-02-23 21:33:53</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>12961</v>
+      </c>
+      <c r="C64" t="n">
+        <v>18205</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3643</v>
+      </c>
+      <c r="E64" t="n">
+        <v>7274</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4460</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>453</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2150</v>
+      </c>
+      <c r="J64" t="n">
+        <v>8477</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>443</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>76</v>
+      </c>
+      <c r="P64" t="n">
+        <v>111</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-02-24 00:57:30</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>16097</v>
+      </c>
+      <c r="C65" t="n">
+        <v>21622</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4936</v>
+      </c>
+      <c r="E65" t="n">
+        <v>8855</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5673</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3268</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2606</v>
+      </c>
+      <c r="J65" t="n">
+        <v>10957</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>589</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>77</v>
+      </c>
+      <c r="P65" t="n">
+        <v>113</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-02-24 01:05:00</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>17930</v>
+      </c>
+      <c r="C66" t="n">
+        <v>23857</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5404</v>
+      </c>
+      <c r="E66" t="n">
+        <v>10242</v>
+      </c>
+      <c r="F66" t="n">
+        <v>6445</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3778</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3237</v>
+      </c>
+      <c r="J66" t="n">
+        <v>13194</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>862</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>79</v>
+      </c>
+      <c r="P66" t="n">
+        <v>116</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-02-24 01:51:35</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>19947</v>
+      </c>
+      <c r="C67" t="n">
+        <v>27263</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6511</v>
+      </c>
+      <c r="E67" t="n">
+        <v>11784</v>
+      </c>
+      <c r="F67" t="n">
+        <v>7662</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>468</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3729</v>
+      </c>
+      <c r="J67" t="n">
+        <v>14723</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1094</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>82</v>
+      </c>
+      <c r="P67" t="n">
+        <v>116</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>697303</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-02-24 01:59:48</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>21896</v>
+      </c>
+      <c r="C68" t="n">
+        <v>30446</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7331</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12918</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8212</v>
+      </c>
+      <c r="G68" t="n">
+        <v>4445</v>
+      </c>
+      <c r="H68" t="n">
+        <v>473</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4653</v>
+      </c>
+      <c r="J68" t="n">
+        <v>16427</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1227</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>345</v>
+      </c>
+      <c r="O68" t="n">
+        <v>85</v>
+      </c>
+      <c r="P68" t="n">
+        <v>117</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>786686</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-02-24 02:08:31</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>24247</v>
+      </c>
+      <c r="D69" t="n">
+        <v>31548</v>
+      </c>
+      <c r="E69" t="n">
+        <v>14065</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9104</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>494</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5229</v>
+      </c>
+      <c r="J69" t="n">
+        <v>18213</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1384</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>87</v>
+      </c>
+      <c r="P69" t="n">
+        <v>118</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>880665</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-02-24 03:30:06</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>26731</v>
+      </c>
+      <c r="C70" t="n">
+        <v>35520</v>
+      </c>
+      <c r="D70" t="n">
+        <v>9341</v>
+      </c>
+      <c r="E70" t="n">
+        <v>15679</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10456</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>508</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6022</v>
+      </c>
+      <c r="J70" t="n">
+        <v>19861</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1499</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>89</v>
+      </c>
+      <c r="P70" t="n">
+        <v>118</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>979833</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-02-24 03:43:09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>30036</v>
+      </c>
+      <c r="C71" t="n">
+        <v>38730</v>
+      </c>
+      <c r="D71" t="n">
+        <v>9890</v>
+      </c>
+      <c r="E71" t="n">
+        <v>17288</v>
+      </c>
+      <c r="F71" t="n">
+        <v>11185</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>514</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6556</v>
+      </c>
+      <c r="J71" t="n">
+        <v>21429</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1759</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>93</v>
+      </c>
+      <c r="P71" t="n">
+        <v>121</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1130843</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-02-24 03:50:37</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>33279</v>
+      </c>
+      <c r="C72" t="n">
+        <v>42029</v>
+      </c>
+      <c r="D72" t="n">
+        <v>11350</v>
+      </c>
+      <c r="E72" t="n">
+        <v>18857</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12837</v>
+      </c>
+      <c r="G72" t="n">
+        <v>6460</v>
+      </c>
+      <c r="H72" t="n">
+        <v>525</v>
+      </c>
+      <c r="I72" t="n">
+        <v>7323</v>
+      </c>
+      <c r="J72" t="n">
+        <v>23643</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1872</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>94</v>
+      </c>
+      <c r="P72" t="n">
+        <v>122</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1230365</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-02-24 04:36:42</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>35975</v>
+      </c>
+      <c r="C73" t="n">
+        <v>43863</v>
+      </c>
+      <c r="D73" t="n">
+        <v>12441</v>
+      </c>
+      <c r="E73" t="n">
+        <v>20457</v>
+      </c>
+      <c r="F73" t="n">
+        <v>14187</v>
+      </c>
+      <c r="G73" t="n">
+        <v>7194</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7867</v>
+      </c>
+      <c r="J73" t="n">
+        <v>25518</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2239</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>95</v>
+      </c>
+      <c r="P73" t="n">
+        <v>123</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1323944</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2026-02-24 04:47:10</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>38599</v>
+      </c>
+      <c r="C74" t="n">
+        <v>46678</v>
+      </c>
+      <c r="D74" t="n">
+        <v>13608</v>
+      </c>
+      <c r="E74" t="n">
+        <v>22025</v>
+      </c>
+      <c r="F74" t="n">
+        <v>15389</v>
+      </c>
+      <c r="G74" t="n">
+        <v>7690</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>8389</v>
+      </c>
+      <c r="J74" t="n">
+        <v>26815</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2361</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>99</v>
+      </c>
+      <c r="P74" t="n">
+        <v>124</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2026-02-24 05:37:09</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>42178</v>
+      </c>
+      <c r="C75" t="n">
+        <v>50123</v>
+      </c>
+      <c r="D75" t="n">
+        <v>14953</v>
+      </c>
+      <c r="E75" t="n">
+        <v>23446</v>
+      </c>
+      <c r="F75" t="n">
+        <v>16593</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>554</v>
+      </c>
+      <c r="I75" t="n">
+        <v>9164</v>
+      </c>
+      <c r="J75" t="n">
+        <v>28121</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>2517</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>101</v>
+      </c>
+      <c r="P75" t="n">
+        <v>126</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1562203</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2026-02-24 05:47:33</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>44930</v>
+      </c>
+      <c r="C76" t="n">
+        <v>52329</v>
+      </c>
+      <c r="D76" t="n">
+        <v>16228</v>
+      </c>
+      <c r="E76" t="n">
+        <v>25534</v>
+      </c>
+      <c r="F76" t="n">
+        <v>18389</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>572</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9740</v>
+      </c>
+      <c r="J76" t="n">
+        <v>29983</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2828</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>106</v>
+      </c>
+      <c r="P76" t="n">
+        <v>129</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1681283</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2026-02-24 05:57:07</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>47710</v>
+      </c>
+      <c r="C77" t="n">
+        <v>55332</v>
+      </c>
+      <c r="D77" t="n">
+        <v>17343</v>
+      </c>
+      <c r="E77" t="n">
+        <v>27427</v>
+      </c>
+      <c r="F77" t="n">
+        <v>19887</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>589</v>
+      </c>
+      <c r="I77" t="n">
+        <v>10288</v>
+      </c>
+      <c r="J77" t="n">
+        <v>31962</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>3120</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>108</v>
+      </c>
+      <c r="P77" t="n">
+        <v>131</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1786683</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-02-25 01:59:55</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>5745</v>
+      </c>
+      <c r="C78" t="n">
+        <v>5918</v>
+      </c>
+      <c r="D78" t="n">
+        <v>749</v>
+      </c>
+      <c r="E78" t="n">
+        <v>650</v>
+      </c>
+      <c r="F78" t="n">
+        <v>535</v>
+      </c>
+      <c r="G78" t="n">
+        <v>640</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>221</v>
+      </c>
+      <c r="J78" t="n">
+        <v>738</v>
+      </c>
+      <c r="K78" t="n">
+        <v>493</v>
+      </c>
+      <c r="L78" t="n">
+        <v>88</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>110</v>
+      </c>
+      <c r="P78" t="n">
+        <v>132</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-02-25 02:07:22</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>9165</v>
+      </c>
+      <c r="C79" t="n">
+        <v>10804</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2751</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4157</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2498</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2050</v>
+      </c>
+      <c r="H79" t="n">
+        <v>617</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1508</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3610</v>
+      </c>
+      <c r="K79" t="n">
+        <v>493</v>
+      </c>
+      <c r="L79" t="n">
+        <v>251</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>132</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>229035</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-02-25 02:14:27</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>15175</v>
+      </c>
+      <c r="C80" t="n">
+        <v>15722</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3366</v>
+      </c>
+      <c r="E80" t="n">
+        <v>6366</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3581</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>629</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2315</v>
+      </c>
+      <c r="J80" t="n">
+        <v>6333</v>
+      </c>
+      <c r="K80" t="n">
+        <v>493</v>
+      </c>
+      <c r="L80" t="n">
+        <v>387</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>10</v>
+      </c>
+      <c r="O80" t="n">
+        <v>112</v>
+      </c>
+      <c r="P80" t="n">
+        <v>134</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-02-25 02:21:21</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>18577</v>
+      </c>
+      <c r="C81" t="n">
+        <v>17380</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4735</v>
+      </c>
+      <c r="E81" t="n">
+        <v>8584</v>
+      </c>
+      <c r="F81" t="n">
+        <v>5357</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>632</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2890</v>
+      </c>
+      <c r="J81" t="n">
+        <v>9345</v>
+      </c>
+      <c r="K81" t="n">
+        <v>493</v>
+      </c>
+      <c r="L81" t="n">
+        <v>657</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>114</v>
+      </c>
+      <c r="P81" t="n">
+        <v>134</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>437033</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-02-25 03:13:58</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>22287</v>
+      </c>
+      <c r="C82" t="n">
+        <v>21892</v>
+      </c>
+      <c r="D82" t="n">
+        <v>6140</v>
+      </c>
+      <c r="E82" t="n">
+        <v>10961</v>
+      </c>
+      <c r="F82" t="n">
+        <v>7033</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>647</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3803</v>
+      </c>
+      <c r="J82" t="n">
+        <v>11068</v>
+      </c>
+      <c r="K82" t="n">
+        <v>493</v>
+      </c>
+      <c r="L82" t="n">
+        <v>803</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>118</v>
+      </c>
+      <c r="P82" t="n">
+        <v>139</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>572559</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-02-25 03:22:29</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>24997</v>
+      </c>
+      <c r="C83" t="n">
+        <v>26698</v>
+      </c>
+      <c r="D83" t="n">
+        <v>7241</v>
+      </c>
+      <c r="E83" t="n">
+        <v>13189</v>
+      </c>
+      <c r="F83" t="n">
+        <v>8053</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4349</v>
+      </c>
+      <c r="H83" t="n">
+        <v>647</v>
+      </c>
+      <c r="I83" t="n">
+        <v>4580</v>
+      </c>
+      <c r="J83" t="n">
+        <v>13288</v>
+      </c>
+      <c r="K83" t="n">
+        <v>493</v>
+      </c>
+      <c r="L83" t="n">
+        <v>960</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>267</v>
+      </c>
+      <c r="O83" t="n">
+        <v>119</v>
+      </c>
+      <c r="P83" t="n">
+        <v>142</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>660310</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-02-25 04:14:16</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>28589</v>
+      </c>
+      <c r="C84" t="n">
+        <v>30920</v>
+      </c>
+      <c r="D84" t="n">
+        <v>8262</v>
+      </c>
+      <c r="E84" t="n">
+        <v>15357</v>
+      </c>
+      <c r="F84" t="n">
+        <v>9007</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>656</v>
+      </c>
+      <c r="I84" t="n">
+        <v>5279</v>
+      </c>
+      <c r="J84" t="n">
+        <v>15990</v>
+      </c>
+      <c r="K84" t="n">
+        <v>493</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1046</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>120</v>
+      </c>
+      <c r="P84" t="n">
+        <v>143</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>767181</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-02-25 04:23:37</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>32563</v>
+      </c>
+      <c r="C85" t="n">
+        <v>34734</v>
+      </c>
+      <c r="D85" t="n">
+        <v>9708</v>
+      </c>
+      <c r="E85" t="n">
+        <v>17309</v>
+      </c>
+      <c r="F85" t="n">
+        <v>10456</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>658</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6274</v>
+      </c>
+      <c r="J85" t="n">
+        <v>18249</v>
+      </c>
+      <c r="K85" t="n">
+        <v>493</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1174</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>124</v>
+      </c>
+      <c r="P85" t="n">
+        <v>147</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>871471</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-02-25 15:17:35</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>35685</v>
+      </c>
+      <c r="C86" t="n">
+        <v>39514</v>
+      </c>
+      <c r="D86" t="n">
+        <v>10838</v>
+      </c>
+      <c r="E86" t="n">
+        <v>20111</v>
+      </c>
+      <c r="F86" t="n">
+        <v>11727</v>
+      </c>
+      <c r="G86" t="n">
+        <v>6410</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7210</v>
+      </c>
+      <c r="J86" t="n">
+        <v>20611</v>
+      </c>
+      <c r="K86" t="n">
+        <v>493</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1488</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>125</v>
+      </c>
+      <c r="P86" t="n">
+        <v>148</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-02-25 15:27:02</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>40696</v>
+      </c>
+      <c r="C87" t="n">
+        <v>44037</v>
+      </c>
+      <c r="D87" t="n">
+        <v>11524</v>
+      </c>
+      <c r="E87" t="n">
+        <v>22362</v>
+      </c>
+      <c r="F87" t="n">
+        <v>12471</v>
+      </c>
+      <c r="G87" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8030</v>
+      </c>
+      <c r="J87" t="n">
+        <v>22600</v>
+      </c>
+      <c r="K87" t="n">
+        <v>493</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1770</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2571</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>129</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-02-25 17:02:07</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>42197</v>
+      </c>
+      <c r="C88" t="n">
+        <v>46305</v>
+      </c>
+      <c r="D88" t="n">
+        <v>14157</v>
+      </c>
+      <c r="E88" t="n">
+        <v>24692</v>
+      </c>
+      <c r="F88" t="n">
+        <v>15271</v>
+      </c>
+      <c r="G88" t="n">
+        <v>8206</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>8654</v>
+      </c>
+      <c r="J88" t="n">
+        <v>24732</v>
+      </c>
+      <c r="K88" t="n">
+        <v>493</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1947</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2820</v>
+      </c>
+      <c r="N88" t="n">
+        <v>544</v>
+      </c>
+      <c r="O88" t="n">
+        <v>129</v>
+      </c>
+      <c r="P88" t="n">
+        <v>154</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1150385</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-02-25 17:32:56</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>47586</v>
+      </c>
+      <c r="C89" t="n">
+        <v>52492</v>
+      </c>
+      <c r="D89" t="n">
+        <v>14855</v>
+      </c>
+      <c r="E89" t="n">
+        <v>26633</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15865</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9214</v>
+      </c>
+      <c r="J89" t="n">
+        <v>26534</v>
+      </c>
+      <c r="K89" t="n">
+        <v>493</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2079</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>130</v>
+      </c>
+      <c r="P89" t="n">
+        <v>156</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1281211</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-02-25 17:38:59</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>50587</v>
+      </c>
+      <c r="C90" t="n">
+        <v>56871</v>
+      </c>
+      <c r="D90" t="n">
+        <v>16258</v>
+      </c>
+      <c r="E90" t="n">
+        <v>29487</v>
+      </c>
+      <c r="F90" t="n">
+        <v>17408</v>
+      </c>
+      <c r="G90" t="n">
+        <v>10410</v>
+      </c>
+      <c r="H90" t="n">
+        <v>683</v>
+      </c>
+      <c r="I90" t="n">
+        <v>10243</v>
+      </c>
+      <c r="J90" t="n">
+        <v>29471</v>
+      </c>
+      <c r="K90" t="n">
+        <v>493</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2195</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>612</v>
+      </c>
+      <c r="O90" t="n">
+        <v>130</v>
+      </c>
+      <c r="P90" t="n">
+        <v>157</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1363784</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-02-25 17:44:52</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>52100</v>
+      </c>
+      <c r="C91" t="n">
+        <v>59251</v>
+      </c>
+      <c r="D91" t="n">
+        <v>17085</v>
+      </c>
+      <c r="E91" t="n">
+        <v>31320</v>
+      </c>
+      <c r="F91" t="n">
+        <v>18369</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>697</v>
+      </c>
+      <c r="I91" t="n">
+        <v>11239</v>
+      </c>
+      <c r="J91" t="n">
+        <v>31656</v>
+      </c>
+      <c r="K91" t="n">
+        <v>493</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2421</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>130</v>
+      </c>
+      <c r="P91" t="n">
+        <v>157</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1447610</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-02-26 16:17:03</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>70427</v>
+      </c>
+      <c r="C92" t="n">
+        <v>82077</v>
+      </c>
+      <c r="D92" t="n">
+        <v>22691</v>
+      </c>
+      <c r="E92" t="n">
+        <v>40895</v>
+      </c>
+      <c r="F92" t="n">
+        <v>24799</v>
+      </c>
+      <c r="G92" t="n">
+        <v>14465</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>15324</v>
+      </c>
+      <c r="J92" t="n">
+        <v>43148</v>
+      </c>
+      <c r="K92" t="n">
+        <v>493</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3338</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>139</v>
+      </c>
+      <c r="P92" t="n">
+        <v>165</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>136576</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-02-26 16:25:58</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>75275</v>
+      </c>
+      <c r="C93" t="n">
+        <v>86429</v>
+      </c>
+      <c r="D93" t="n">
+        <v>24062</v>
+      </c>
+      <c r="E93" t="n">
+        <v>42370</v>
+      </c>
+      <c r="F93" t="n">
+        <v>26293</v>
+      </c>
+      <c r="G93" t="n">
+        <v>14885</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>16027</v>
+      </c>
+      <c r="J93" t="n">
+        <v>45787</v>
+      </c>
+      <c r="K93" t="n">
+        <v>493</v>
+      </c>
+      <c r="L93" t="n">
+        <v>3536</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5028</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>141</v>
+      </c>
+      <c r="P93" t="n">
+        <v>166</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>263249</v>
+      </c>
+      <c r="S93" t="n">
         <v>0</v>
       </c>
     </row>

--- a/logs/grind_stats.xlsx
+++ b/logs/grind_stats.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A49" sqref="A49:XFD49"/>
@@ -6132,6 +6132,250 @@
         <v>0</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:59:55</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>86344</v>
+      </c>
+      <c r="C94" t="n">
+        <v>102063</v>
+      </c>
+      <c r="D94" t="n">
+        <v>27752</v>
+      </c>
+      <c r="E94" t="n">
+        <v>50654</v>
+      </c>
+      <c r="F94" t="n">
+        <v>31079</v>
+      </c>
+      <c r="G94" t="n">
+        <v>17393</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>19136</v>
+      </c>
+      <c r="J94" t="n">
+        <v>55513</v>
+      </c>
+      <c r="K94" t="n">
+        <v>493</v>
+      </c>
+      <c r="L94" t="n">
+        <v>4438</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>151</v>
+      </c>
+      <c r="P94" t="n">
+        <v>172</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="R94" t="n">
+        <v>635335</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:06:26</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>89575</v>
+      </c>
+      <c r="C95" t="n">
+        <v>106260</v>
+      </c>
+      <c r="D95" t="n">
+        <v>29014</v>
+      </c>
+      <c r="E95" t="n">
+        <v>52186</v>
+      </c>
+      <c r="F95" t="n">
+        <v>32087</v>
+      </c>
+      <c r="G95" t="n">
+        <v>17844</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>19752</v>
+      </c>
+      <c r="J95" t="n">
+        <v>57935</v>
+      </c>
+      <c r="K95" t="n">
+        <v>493</v>
+      </c>
+      <c r="L95" t="n">
+        <v>4633</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>152</v>
+      </c>
+      <c r="P95" t="n">
+        <v>173</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>718754</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:06:06</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>93343</v>
+      </c>
+      <c r="C96" t="n">
+        <v>111715</v>
+      </c>
+      <c r="D96" t="n">
+        <v>29834</v>
+      </c>
+      <c r="E96" t="n">
+        <v>53964</v>
+      </c>
+      <c r="F96" t="n">
+        <v>33585</v>
+      </c>
+      <c r="G96" t="n">
+        <v>18109</v>
+      </c>
+      <c r="H96" t="n">
+        <v>810</v>
+      </c>
+      <c r="I96" t="n">
+        <v>20639</v>
+      </c>
+      <c r="J96" t="n">
+        <v>60711</v>
+      </c>
+      <c r="K96" t="n">
+        <v>493</v>
+      </c>
+      <c r="L96" t="n">
+        <v>4870</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>154</v>
+      </c>
+      <c r="P96" t="n">
+        <v>175</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="R96" t="n">
+        <v>812874</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:13:12</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>97420</v>
+      </c>
+      <c r="C97" t="n">
+        <v>115299</v>
+      </c>
+      <c r="D97" t="n">
+        <v>31307</v>
+      </c>
+      <c r="E97" t="n">
+        <v>56694</v>
+      </c>
+      <c r="F97" t="n">
+        <v>35051</v>
+      </c>
+      <c r="G97" t="n">
+        <v>19696</v>
+      </c>
+      <c r="H97" t="n">
+        <v>812</v>
+      </c>
+      <c r="I97" t="n">
+        <v>21489</v>
+      </c>
+      <c r="J97" t="n">
+        <v>62871</v>
+      </c>
+      <c r="K97" t="n">
+        <v>493</v>
+      </c>
+      <c r="L97" t="n">
+        <v>5135</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>154</v>
+      </c>
+      <c r="P97" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="R97" t="n">
+        <v>914296</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
